--- a/docs/excel/TMorePlay.xlsx
+++ b/docs/excel/TMorePlay.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>ListSpliter: ","</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,7 +642,7 @@
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -660,8 +664,11 @@
       <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -683,8 +690,11 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -694,12 +704,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -722,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -741,52 +751,52 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
